--- a/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.72</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5868</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>004351</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512560</t>
+          <t>512660</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达中证军工ETF</t>
+          <t>国泰中证军工ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>124.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>512660</t>
+          <t>161024</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证军工ETF</t>
+          <t>富国中证军工指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>66.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>99.29</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3671</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512810</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝兴业中证军工ETF</t>
+          <t>国泰中证全指通信设备ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98.68</t>
+          <t>31.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>002983</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>长信国防军工量化灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5595</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -790,25 +900,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>502003</t>
+          <t>163115</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达军工指数（LOF）A</t>
+          <t>申万菱信中证军工指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>008960</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰中证全指通信设备ETF</t>
+          <t>长信国防军工量化灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -846,25 +976,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161024</t>
+          <t>502003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证军工指数</t>
+          <t>易方达军工指数（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.42</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>163115</t>
+          <t>512560</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>申万菱信中证军工指数A</t>
+          <t>易方达中证军工ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002983</t>
+          <t>512810</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合A</t>
+          <t>华宝兴业中证军工ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008960</t>
+          <t>004351</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信国防军工量化灵活配置混合C</t>
+          <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.16</v>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2106,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2027,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,17 +2039,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2058,14 +2079,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7642</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2074,14 +2117,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.16</v>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2090,14 +2155,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -2106,14 +2193,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.699999999999999</v>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2122,13 +2231,471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.09</v>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.16</v>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2657,14 +2744,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2673,14 +2782,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.699999999999999</v>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2689,13 +2820,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>2.09</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.16</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>9.699999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.86</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +1904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2115,7 +2378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2835,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
+++ b/数据整理/stocks/A股/深证主板/002465-海格通信.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.09</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.16</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>9.699999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002983</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5868</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信国防军工量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +908,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>99.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3303</t>
+          <t>0.3552</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -711,36 +936,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011686</t>
+          <t>970015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信先进装备股票C</t>
+          <t>申万宏源红利成长灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.17</t>
+          <t>86.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0564</t>
+          <t>0.0277</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>970015</t>
+          <t>011685</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万宏源红利成长灵活配置混合</t>
+          <t>创金合信先进装备股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.01</t>
+          <t>80.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0266</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -787,32 +1012,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011685</t>
+          <t>011686</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信先进装备股票A</t>
+          <t>创金合信先进装备股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.17</t>
+          <t>80.29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0247</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -835,26 +1060,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0171</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -863,6 +1088,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1184,7 +1655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1734,7 +2205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1904,7 +2375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2378,7 +2849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2624,7 +3095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3096,212 +3567,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.72</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0739</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002983</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5868</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008960</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信国防军工量化灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1639</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0381</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>